--- a/2-simulation-and-optimization/simulation/widget-sales.xlsx
+++ b/2-simulation-and-optimization/simulation/widget-sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-advanced-statistics-for-business-analytics\simulation-and-optimization\simulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-advanced-statistics-for-business-analytics\2-simulation-and-optimization\simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE561F9F-452F-4E79-BD2F-2292F9FCB108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB09FDB-055B-4AB0-9393-ADC684012C2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{867EEEF5-6CA2-430A-A11C-051EAD285BAA}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{867EEEF5-6CA2-430A-A11C-051EAD285BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Cumulative demand</t>
   </si>
   <si>
-    <t>Supply</t>
-  </si>
-  <si>
     <t>Average sales/day</t>
   </si>
   <si>
@@ -67,11 +64,18 @@
   <si>
     <t>Days to sell</t>
   </si>
+  <si>
+    <t>Goal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,8 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,8 +765,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8973502" y="1346835"/>
-              <a:ext cx="4572000" cy="2636520"/>
+              <a:off x="9526375" y="1340908"/>
+              <a:ext cx="4842934" cy="2624667"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1094,53 +1100,54 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41015625" customWidth="1"/>
+    <col min="3" max="3" width="19.1171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(B4),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B6" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(B8),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1151,16 +1158,18 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="F8">
         <v>1</v>
       </c>
@@ -1169,10 +1178,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(C9),"")</f>
         <v/>
@@ -1185,1574 +1196,1625 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>3</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>4</v>
       </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="F11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>5</v>
       </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="F12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>6</v>
       </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="F13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>7</v>
       </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="F14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>8</v>
       </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="F15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>9</v>
       </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
       <c r="F16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>10</v>
       </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="F17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>11</v>
       </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="F18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>12</v>
       </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="F19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>13</v>
       </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="F20">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>14</v>
       </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="F21">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>15</v>
       </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="F22">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>16</v>
       </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="F23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>17</v>
       </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="F24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>18</v>
       </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
       <c r="F25">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>19</v>
       </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
       <c r="F26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>20</v>
       </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="F27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>21</v>
       </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
       <c r="F28">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>22</v>
       </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="F29">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>23</v>
       </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="F30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>24</v>
       </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
       <c r="F31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>25</v>
       </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="F32">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>26</v>
       </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="F33">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>27</v>
       </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="F34">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F35">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F36">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F37">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F38">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F39">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F40">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F41">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F42">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F43">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F44">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F45">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F46">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F47">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F48">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F49">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F50">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F51">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F52">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F53">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F54">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F55">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F56">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F57">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F58">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F59">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F60">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F61">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F62">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F63">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F64">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F65">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F66">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F67">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F68">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F69">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F70">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F71">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F72">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F73">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F74">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F75">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F76">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F77">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F78">
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F79">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F80">
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F81">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F82">
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F83">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F84">
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F85">
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F86">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F87">
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F88">
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F89">
         <v>82</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F90">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F91">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F92">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F93">
         <v>86</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F94">
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F95">
         <v>88</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F96">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F97">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F98">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F99">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F100">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F101">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F102">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F103">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F104">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F105">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F106">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F107">
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F108">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F109">
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F110">
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F111">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F112">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F113">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F114">
         <v>107</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F115">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F116">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F117">
         <v>110</v>
       </c>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F118">
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F119">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F120">
         <v>113</v>
       </c>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F121">
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F122">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F123">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F124">
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F125">
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F126">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F127">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F128">
         <v>121</v>
       </c>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F129">
         <v>122</v>
       </c>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F130">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F131">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F132">
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F133">
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F134">
         <v>127</v>
       </c>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F135">
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F136">
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F137">
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F138">
         <v>131</v>
       </c>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F139">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F140">
         <v>133</v>
       </c>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F141">
         <v>134</v>
       </c>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F142">
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F143">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F144">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F145">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F146">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F147">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F148">
         <v>141</v>
       </c>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F149">
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F150">
         <v>143</v>
       </c>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F151">
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F152">
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F153">
         <v>146</v>
       </c>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F154">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F155">
         <v>148</v>
       </c>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F156">
         <v>149</v>
       </c>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F157">
         <v>150</v>
       </c>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F158">
         <v>151</v>
       </c>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F159">
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F160">
         <v>153</v>
       </c>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F161">
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F162">
         <v>155</v>
       </c>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F163">
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F164">
         <v>157</v>
       </c>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F165">
         <v>158</v>
       </c>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F166">
         <v>159</v>
       </c>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F167">
         <v>160</v>
       </c>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F168">
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F169">
         <v>162</v>
       </c>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F170">
         <v>163</v>
       </c>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F171">
         <v>164</v>
       </c>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F172">
         <v>165</v>
       </c>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F173">
         <v>166</v>
       </c>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F174">
         <v>167</v>
       </c>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F175">
         <v>168</v>
       </c>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F176">
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F177">
         <v>170</v>
       </c>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F178">
         <v>171</v>
       </c>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F179">
         <v>172</v>
       </c>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F180">
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F181">
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F182">
         <v>175</v>
       </c>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F183">
         <v>176</v>
       </c>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F184">
         <v>177</v>
       </c>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F185">
         <v>178</v>
       </c>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F186">
         <v>179</v>
       </c>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F187">
         <v>180</v>
       </c>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F188">
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F189">
         <v>182</v>
       </c>
     </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F190">
         <v>183</v>
       </c>
     </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F191">
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F192">
         <v>185</v>
       </c>
     </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F193">
         <v>186</v>
       </c>
     </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F194">
         <v>187</v>
       </c>
     </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F195">
         <v>188</v>
       </c>
     </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F196">
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F197">
         <v>190</v>
       </c>
     </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F198">
         <v>191</v>
       </c>
     </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F199">
         <v>192</v>
       </c>
     </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F200">
         <v>193</v>
       </c>
     </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F201">
         <v>194</v>
       </c>
     </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F202">
         <v>195</v>
       </c>
     </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F203">
         <v>196</v>
       </c>
     </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F204">
         <v>197</v>
       </c>
     </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F205">
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F206">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F207">
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F208">
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F209">
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F210">
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F211">
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F212">
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F213">
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F214">
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F215">
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F216">
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F217">
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F218">
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F219">
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F220">
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F221">
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F222">
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F223">
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F224">
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F225">
         <v>218</v>
       </c>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F226">
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F227">
         <v>220</v>
       </c>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F228">
         <v>221</v>
       </c>
     </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F229">
         <v>222</v>
       </c>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F230">
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F231">
         <v>224</v>
       </c>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F232">
         <v>225</v>
       </c>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F233">
         <v>226</v>
       </c>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F234">
         <v>227</v>
       </c>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F235">
         <v>228</v>
       </c>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F236">
         <v>229</v>
       </c>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F237">
         <v>230</v>
       </c>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F238">
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F239">
         <v>232</v>
       </c>
     </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F240">
         <v>233</v>
       </c>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F241">
         <v>234</v>
       </c>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F242">
         <v>235</v>
       </c>
     </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F243">
         <v>236</v>
       </c>
     </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F244">
         <v>237</v>
       </c>
     </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F245">
         <v>238</v>
       </c>
     </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F246">
         <v>239</v>
       </c>
     </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F247">
         <v>240</v>
       </c>
     </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F248">
         <v>241</v>
       </c>
     </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F249">
         <v>242</v>
       </c>
     </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F250">
         <v>243</v>
       </c>
     </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F251">
         <v>244</v>
       </c>
     </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F252">
         <v>245</v>
       </c>
     </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F253">
         <v>246</v>
       </c>
     </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F254">
         <v>247</v>
       </c>
     </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F255">
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F256">
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F257">
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F258">
         <v>251</v>
       </c>
     </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F259">
         <v>252</v>
       </c>
     </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F260">
         <v>253</v>
       </c>
     </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F261">
         <v>254</v>
       </c>
     </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F262">
         <v>255</v>
       </c>
     </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F263">
         <v>256</v>
       </c>
     </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F264">
         <v>257</v>
       </c>
     </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F265">
         <v>258</v>
       </c>
     </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F266">
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F267">
         <v>260</v>
       </c>
     </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F268">
         <v>261</v>
       </c>
     </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F269">
         <v>262</v>
       </c>
     </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F270">
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F271">
         <v>264</v>
       </c>
     </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F272">
         <v>265</v>
       </c>
     </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F273">
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F274">
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F275">
         <v>268</v>
       </c>
     </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F276">
         <v>269</v>
       </c>
     </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F277">
         <v>270</v>
       </c>
     </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F278">
         <v>271</v>
       </c>
     </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F279">
         <v>272</v>
       </c>
     </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F280">
         <v>273</v>
       </c>
     </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F281">
         <v>274</v>
       </c>
     </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F282">
         <v>275</v>
       </c>
     </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F283">
         <v>276</v>
       </c>
     </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F284">
         <v>277</v>
       </c>
     </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F285">
         <v>278</v>
       </c>
     </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F286">
         <v>279</v>
       </c>
     </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F287">
         <v>280</v>
       </c>
     </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F288">
         <v>281</v>
       </c>
     </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F289">
         <v>282</v>
       </c>
     </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F290">
         <v>283</v>
       </c>
     </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F291">
         <v>284</v>
       </c>
     </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F292">
         <v>285</v>
       </c>
     </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F293">
         <v>286</v>
       </c>
     </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F294">
         <v>287</v>
       </c>
     </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F295">
         <v>288</v>
       </c>
     </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F296">
         <v>289</v>
       </c>
     </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F297">
         <v>290</v>
       </c>
     </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F298">
         <v>291</v>
       </c>
     </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F299">
         <v>292</v>
       </c>
     </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F300">
         <v>293</v>
       </c>
     </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F301">
         <v>294</v>
       </c>
     </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F302">
         <v>295</v>
       </c>
     </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F303">
         <v>296</v>
       </c>
     </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F304">
         <v>297</v>
       </c>
     </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F305">
         <v>298</v>
       </c>
     </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F306">
         <v>299</v>
       </c>
     </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="6:6" x14ac:dyDescent="0.5">
       <c r="F307">
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2762,7 +2824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2774,7 +2836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
